--- a/PlantillaPrimera.xlsx
+++ b/PlantillaPrimera.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Hoja1"/>
@@ -50,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +68,14 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -86,7 +92,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -139,11 +145,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,6 +164,9 @@
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -169,13 +185,16 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -485,57 +504,51 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="19.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="28.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="13" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4">
-        <f>+B3/205</f>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="4">
-        <f>+B5/205</f>
-      </c>
-      <c r="B5" s="4">
-        <f>B3-(B3*0.02)</f>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5">
         <f>B3-B5</f>
       </c>
     </row>
@@ -543,31 +556,31 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <f>IFERROR(B8/B5,"-")</f>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -584,12 +597,12 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -600,41 +613,35 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4">
-        <f>+B3/205</f>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="4">
-        <f>+B5/205</f>
-      </c>
-      <c r="B5" s="4">
-        <f>B3-(B3*0.02)</f>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5">
         <f>B3-B5</f>
       </c>
     </row>
@@ -642,13 +649,13 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <f>IFERROR(B8/B5,"-")</f>
       </c>
     </row>
@@ -671,8 +678,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -683,41 +690,35 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4">
-        <f>+B3/205</f>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="4">
-        <f>+B5/205</f>
-      </c>
-      <c r="B5" s="4">
-        <f>B3-(B3*0.02)</f>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5">
         <f>B3-B5</f>
       </c>
     </row>
@@ -725,13 +726,13 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <f>IFERROR(B8/B5,"-")</f>
       </c>
     </row>
@@ -754,8 +755,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -766,41 +767,35 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4">
-        <f>+B3/205</f>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="4">
-        <f>+B5/205</f>
-      </c>
-      <c r="B5" s="4">
-        <f>B3-(B3*0.02)</f>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5">
         <f>B3-B5</f>
       </c>
     </row>
@@ -808,13 +803,13 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <f>IFERROR(B8/B5,"-")</f>
       </c>
     </row>
@@ -837,8 +832,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -849,41 +844,35 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4">
-        <f>+B3/205</f>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="4">
-        <f>+B5/205</f>
-      </c>
-      <c r="B5" s="4">
-        <f>B3-(B3*0.02)</f>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5">
         <f>B3-B5</f>
       </c>
     </row>
@@ -891,13 +880,13 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <f>IFERROR(B8/B5,"-")</f>
       </c>
     </row>
@@ -920,8 +909,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -932,41 +921,35 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4">
-        <f>+B3/205</f>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="4">
-        <f>+B5/205</f>
-      </c>
-      <c r="B5" s="4">
-        <f>B3-(B3*0.02)</f>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5">
         <f>B3-B5</f>
       </c>
     </row>
@@ -974,13 +957,13 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <f>IFERROR(B8/B5,"-")</f>
       </c>
     </row>
@@ -1003,8 +986,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="9" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="28.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
@@ -1015,41 +998,35 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
-      <c r="A3" s="4">
-        <f>+B3/205</f>
-      </c>
-      <c r="B3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="4">
-        <f>+B5/205</f>
-      </c>
-      <c r="B5" s="4">
-        <f>B3-(B3*0.02)</f>
-      </c>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="5">
         <f>B3-B5</f>
       </c>
     </row>
@@ -1057,13 +1034,13 @@
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <f>IFERROR(B8/B5,"-")</f>
       </c>
     </row>
